--- a/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
+++ b/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thndr\eclipse-workspace\SalesforceProjectTest\src\main\java\com\salesforce\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thndr\eclipse-workspace\SalesforceProjectTest\src\main\java\com\salesforce\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE7DCB-7187-4A57-8209-7C94673F4FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277199D-D7C6-4C21-9908-F75C43842590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" activeTab="1" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
+    <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98AB188-72C1-4BBA-B5C5-6FDF1D62C084}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A191BF70-292A-4047-862C-F2407DB36ED3}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
+++ b/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thndr\eclipse-workspace\SalesforceProjectTest\src\main\java\com\salesforce\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277199D-D7C6-4C21-9908-F75C43842590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CA952-1DD8-4029-8C44-C2D890A574B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
   </bookViews>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
+++ b/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thndr\eclipse-workspace\SalesforceProjectTest\src\main\java\com\salesforce\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CA952-1DD8-4029-8C44-C2D890A574B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAA2AD2-FD87-41DB-843F-B032482CBBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98AB188-72C1-4BBA-B5C5-6FDF1D62C084}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,38 +516,30 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
+++ b/src/main/java/com/salesforce/testdata/SalesforceProjectTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thndr\eclipse-workspace\SalesforceProjectTest\src\main\java\com\salesforce\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAA2AD2-FD87-41DB-843F-B032482CBBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FFA7B-A591-4503-9F78-5A376DDE9078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
+    <workbookView xWindow="636" yWindow="876" windowWidth="21900" windowHeight="11088" activeTab="1" xr2:uid="{2CEAFDB3-5223-4F75-A1C0-5E4B986E3980}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
     <sheet name="DashboardPageTabs" sheetId="2" r:id="rId2"/>
+    <sheet name="NewAccountData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>username</t>
   </si>
@@ -92,9 +93,6 @@
     <t>Quotes</t>
   </si>
   <si>
-    <t>Chatter</t>
-  </si>
-  <si>
     <t>Opportunities</t>
   </si>
   <si>
@@ -102,6 +100,81 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>parentAccount</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Sohan</t>
+  </si>
+  <si>
+    <t>www.hariom.com</t>
+  </si>
+  <si>
+    <t>Hakuna Matata</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>2882 Flinderation Road</t>
+  </si>
+  <si>
+    <t>1218 Tator Patch Road</t>
+  </si>
+  <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>(345) 641-2457</t>
+  </si>
+  <si>
+    <t>(345) 431-2457</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Chatters</t>
   </si>
 </sst>
 </file>
@@ -125,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,12 +251,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98AB188-72C1-4BBA-B5C5-6FDF1D62C084}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A191BF70-292A-4047-862C-F2407DB36ED3}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +671,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -609,7 +691,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -634,7 +716,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -644,7 +726,121 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC046F1-C16A-4D86-AF39-E1418DB09C6E}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
